--- a/new_ds/summary.xlsx
+++ b/new_ds/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\CDAD\new_ds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\Food_detection\new_ds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9C02085-7AFD-4143-ABCB-1C3DEE769403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F867F60-9986-4707-9EED-F1E6941B9E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{ED142DC4-A7A3-490E-8CC7-422D52C5EC58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED142DC4-A7A3-490E-8CC7-422D52C5EC58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>Image_ID</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -62,15 +59,6 @@
     <t>dhal_curry_4</t>
   </si>
   <si>
-    <t>dhal, Red dried chilies,Curry leaves, shredded vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhal, Steamed white basmati rice, Naan bread, Yogourt, Pickled mix </t>
-  </si>
-  <si>
-    <t>dhal, Steamed white rice</t>
-  </si>
-  <si>
     <t>dhal, spinach, tomato</t>
   </si>
   <si>
@@ -89,27 +77,9 @@
     <t>fish curry, Eggplant, Drumsticks, Tomatoes, Onion, Curry leaves</t>
   </si>
   <si>
-    <t>fish curry, seared fish fillets, Green chilies, Fenugreek leaves</t>
-  </si>
-  <si>
-    <t>fish curry, Fish steaks, Curry leaves, Red chilies, Lemongrass stalk, Onion slices</t>
-  </si>
-  <si>
     <t>fish curry, Fish fillets, Cherry tomatoes, Red chilies, Curry leaves</t>
   </si>
   <si>
-    <t>gotukola_mallum_1</t>
-  </si>
-  <si>
-    <t>gotukola_mallum_2</t>
-  </si>
-  <si>
-    <t>gotukola_mallum_4</t>
-  </si>
-  <si>
-    <t>gotukola_mallum_3</t>
-  </si>
-  <si>
     <t>Gotu kola</t>
   </si>
   <si>
@@ -125,39 +95,9 @@
     <t>hoppers_4</t>
   </si>
   <si>
-    <t>egg hoopers , Pol Sambol, Seeni Sambol, dhal</t>
-  </si>
-  <si>
-    <t>Egg Hopper, Pol Sambol, Seeni Sambol</t>
-  </si>
-  <si>
     <t>Egg Hopper,Mallung , Chutneys</t>
   </si>
   <si>
-    <t>Egg Hopper, Pol Sambol</t>
-  </si>
-  <si>
-    <t>kiribath_1</t>
-  </si>
-  <si>
-    <t>kiribath_2</t>
-  </si>
-  <si>
-    <t>kiribath_3</t>
-  </si>
-  <si>
-    <t>kiribath_4</t>
-  </si>
-  <si>
-    <t>Kiribath, banana leaf</t>
-  </si>
-  <si>
-    <t>Kiribath, Lunu Miris</t>
-  </si>
-  <si>
-    <t>Kiribath, Seeni Lunu</t>
-  </si>
-  <si>
     <t>kottu_1</t>
   </si>
   <si>
@@ -173,30 +113,12 @@
     <t>Chicken kottu, Curry Leaves, Onion, Cabbage</t>
   </si>
   <si>
-    <t>Vegetable Kottu, godamba roti, Scrambled egg, Cabbage, carrots, bean sprouts</t>
-  </si>
-  <si>
     <t>Beef Kotu,  godamba roti,Carrots, purple and green cabbage, onions, Curry leaves, Green chilies</t>
   </si>
   <si>
     <t>Vegetarian Kottu,  godamba roti, Carrots, cabbage, leeks, onions, Curry leaves, Garlic</t>
   </si>
   <si>
-    <t>lunu_sambol_1</t>
-  </si>
-  <si>
-    <t>lunu_sambol_2</t>
-  </si>
-  <si>
-    <t>lunu_sambol_3</t>
-  </si>
-  <si>
-    <t>lunu_sambol_4</t>
-  </si>
-  <si>
-    <t>Lunu Miris, Red onions, crushed red chilies</t>
-  </si>
-  <si>
     <t>pittu_1</t>
   </si>
   <si>
@@ -212,36 +134,9 @@
     <t>Pittu</t>
   </si>
   <si>
-    <t>Pittu, Kiri Hodi, Lunu Miris, Curry leaves</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plain Pittu, </t>
   </si>
   <si>
-    <t>Pittu, coconut milk, Pol Sambol , Curry leaves, Red chilies</t>
-  </si>
-  <si>
-    <t>pol_sambol_1</t>
-  </si>
-  <si>
-    <t>pol_sambol_2</t>
-  </si>
-  <si>
-    <t>pol_sambol_3</t>
-  </si>
-  <si>
-    <t>pol_sambol_4</t>
-  </si>
-  <si>
-    <t>pol sambol</t>
-  </si>
-  <si>
-    <t>pol sambol, curry leave</t>
-  </si>
-  <si>
-    <t>pol sambol, lemon lime, green chillie</t>
-  </si>
-  <si>
     <t>string_hoppers_1</t>
   </si>
   <si>
@@ -254,15 +149,6 @@
     <t>string_hoppers_4</t>
   </si>
   <si>
-    <t>string hoppers, pol sambol, banana leaf</t>
-  </si>
-  <si>
-    <t>string hoppers, pol sambol, banana leaf, coconut milk curry</t>
-  </si>
-  <si>
-    <t>string hoppers, pol sambol,  dhal curry</t>
-  </si>
-  <si>
     <t>string hoppers</t>
   </si>
   <si>
@@ -279,6 +165,147 @@
   </si>
   <si>
     <t>watalappan, coconut milk, Cashew nut</t>
+  </si>
+  <si>
+    <t>dhal, Red chilies,Curry leaves, shredded vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhal, white rice, Naan bread, Yogourt, Pickled mix </t>
+  </si>
+  <si>
+    <t>dhal, white rice</t>
+  </si>
+  <si>
+    <t>fish curry, Fish steaks, Curry leaves, Red chilies, Lemongrass stalk, Onion</t>
+  </si>
+  <si>
+    <t>fish curry, fish fillets, Green chilies, Fenugreek leaves</t>
+  </si>
+  <si>
+    <t>egg hoopers , Coconut Sambol, Seeni Sambol, dhal curry</t>
+  </si>
+  <si>
+    <t>Egg Hopper, Coconut  Sambol, Onion Sambol</t>
+  </si>
+  <si>
+    <t>Egg Hopper, Onion Sambol</t>
+  </si>
+  <si>
+    <t>Vegetable Kottu, godamba roti, egg, Cabbage, carrots, bean sprouts</t>
+  </si>
+  <si>
+    <t>Chillie Paste, Red onions, red chilies</t>
+  </si>
+  <si>
+    <t>Chillie Paste, Red onions,red chilies</t>
+  </si>
+  <si>
+    <t>Pittu, coconut milk, Coconut Sambol , Curry leaves, Red chilies</t>
+  </si>
+  <si>
+    <t>Coconut Sambol</t>
+  </si>
+  <si>
+    <t>Coconut Sambol, curry leave</t>
+  </si>
+  <si>
+    <t>Coconut Sambol, lemon lime, green chillie</t>
+  </si>
+  <si>
+    <t>string hoppers, Coconut Sambol, banana leaf</t>
+  </si>
+  <si>
+    <t>string hoppers, Coconut Sambol, banana leaf, coconut milk curry</t>
+  </si>
+  <si>
+    <t>string hoppers, Coconut Sambol,  dhal curry</t>
+  </si>
+  <si>
+    <t>Pittu, Gravy, Chillie Paste, Curry leaves</t>
+  </si>
+  <si>
+    <t>Milk Rice, banana leaf</t>
+  </si>
+  <si>
+    <t>Milk Rice, Chillie Paste</t>
+  </si>
+  <si>
+    <t>Milk Rice, Onion Sambol</t>
+  </si>
+  <si>
+    <t>milk_rice_1</t>
+  </si>
+  <si>
+    <t>milk_rice_2</t>
+  </si>
+  <si>
+    <t>milk_rice_3</t>
+  </si>
+  <si>
+    <t>milk_rice_4</t>
+  </si>
+  <si>
+    <t>coconut_sambol_1</t>
+  </si>
+  <si>
+    <t>coconut_sambol_2</t>
+  </si>
+  <si>
+    <t>coconut_sambol_3</t>
+  </si>
+  <si>
+    <t>coconut_sambol_4</t>
+  </si>
+  <si>
+    <t>gotu_kola_1</t>
+  </si>
+  <si>
+    <t>gotu_kola_2</t>
+  </si>
+  <si>
+    <t>gotu_kola_3</t>
+  </si>
+  <si>
+    <t>gotu_kola_4</t>
+  </si>
+  <si>
+    <t>chillie_paste_1</t>
+  </si>
+  <si>
+    <t>chillie_paste_2</t>
+  </si>
+  <si>
+    <t>chillie_paste_3</t>
+  </si>
+  <si>
+    <t>chillie_paste_4</t>
+  </si>
+  <si>
+    <t>mixed_dish_1</t>
+  </si>
+  <si>
+    <t>mixed_dish_2</t>
+  </si>
+  <si>
+    <t>mixed_dish_3</t>
+  </si>
+  <si>
+    <t>mixed_dish_4</t>
+  </si>
+  <si>
+    <t>Food items</t>
+  </si>
+  <si>
+    <t>egg hoopers, fish curry, coconut sambol, onion sambol, fruit jamsm vegemite jar, tea</t>
+  </si>
+  <si>
+    <t>plain hoopers, gotu kola, fish curry, coconut sambol, onion sambol, chili sambol</t>
+  </si>
+  <si>
+    <t>white rice, chili sambol, flat bread, dhal curry, gotu kola, jackfruit curry, chicken curry, potato curry, beetroot curry</t>
+  </si>
+  <si>
+    <t>white rice, jackfruit stir-fry, green bean stir-fry, vegetables curry, chicken curry</t>
   </si>
 </sst>
 </file>
@@ -328,10 +355,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -669,382 +694,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B694674-9266-47F8-98A4-2EC0E69D0BD2}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" customWidth="1"/>
-    <col min="2" max="2" width="67.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="88.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
